--- a/Day-2 Testing/UserStories7 - Day 2.xlsx
+++ b/Day-2 Testing/UserStories7 - Day 2.xlsx
@@ -77,7 +77,7 @@
   </si>
   <si>
     <t>1.Launch the browser
-2.Open the url:https://studenthostel.neohire.io/admin/dashboard.php
+2.Open the url:https://carrental.neohire.io/admin/dashboard.php
 3.Click on the Admin Login Option
 4.Enter the valid username and password
 5.Click on the Login Button</t>
@@ -103,7 +103,7 @@
   </si>
   <si>
     <t>1.Launch the browser
-2.Open the url:https://studenthostel.neohire.io/admin/dashboard.php
+2.Open the url:https://carrental.neohire.io/admin/dashboard.php
 3.Click on the Admin Login Option
 4.Enter the invalid username and password
 5.Click on the Login Button</t>
@@ -124,7 +124,7 @@
   </si>
   <si>
     <t>1.Launch the browser
-2.Open the url:https://studenthostel.neohire.io/admin/dashboard.php
+2.Open the url:https://carrental.neohire.io/admin/dashboard.php
 3.Click on the Admin Login Option
 4.Enter the invalid username 
 5.Click on the Login Button</t>
@@ -145,7 +145,7 @@
   </si>
   <si>
     <t>1.Launch the browser
-2.Open the url:https://studenthostel.neohire.io/admin/dashboard.php
+2.Open the url:https://carrental.neohire.io/admin/dashboard.php
 3.Click on the Admin Login Option
 4.Enter the invalid password 
 5.Click on the Login Button</t>
@@ -275,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -319,6 +319,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -326,12 +329,12 @@
     </xf>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
@@ -549,6 +552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -657,42 +661,42 @@
       <c r="B6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="19" t="s">
         <v>25</v>
       </c>
     </row>
@@ -703,47 +707,47 @@
       <c r="B8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="15" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="19" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>40</v>
       </c>
       <c r="B10" s="18" t="s">
@@ -752,20 +756,23 @@
       <c r="C10" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="19" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>